--- a/DOM_Banner/output/dept_banner/Elizabeth B Juneman_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Elizabeth B Juneman_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,418 +360,201 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Sanjiv J. Shah, Barry A. Borlaug, Eugene S. Chung, Donald E. Cutlip, Philippe Debonnaire, Peter S. Fail, Qi Gao, Gerd Hasenfuß, Rami Kahwash, David Kaye, Sheldon E. Litwin, Philipp Lurz, Joseph M. Massaro, Rajeev Mohan, Mark J. Ricciardi, Scott D. Solomon, Aaron L. Sverdlov, Vijendra Swarup, Dirk J. van Veldhuisen, Sebastian Winkler, Martin B. Leon, Joseph G. Akar, Jiro Ando, Toshihisa Anzai, Masanori Asakura, Steven R. Bailey, Anupam Basuray, Fabrice Bauer, Martin Bergmann, J. Anthony Blair, Jeffrey J. Cavendish, Eugene S. Chung, Maja Čikeš, Ira Dauber, Erwan Donal, Jean‐Christophe Eicher, James D. Flaherty, Xavier Freixa, Sameer Gafoor, Zachary M. Gertz, Robert A. Gordon, Marco Guazzi, Cesar Guerrero‐Miranda, Deepak K. Gupta, Finn Gustafsson, Cyrus Hadadi, Emad Hakemi, Louis Handoko, M. Hass, Jörg Hausleiter, Christopher Hayward, Gavin Hickey, Scott L. Hummel, Imad Hussain, Richard Isnard, Chisato Izumi, Guillaume Jondeau, Elizabeth Juneman, Koichiro Kinugawa, Robert Kipperman, Bartek Krakowiak, Selim R. Krim, Joshua Larned, Gregory D. Lewis, Erik Lipšic, Anthony Magalski, Sula Mazimba, Jeremy A. Mazurek, Michele McGrady, S. McKenzie, Shamir R. Mehta, John L. Mignone, Hakim Morsli, Ajith Nair, Thomas Noel, James L. Orford, Kishan S. Parikh, Tiffany Patterson, Martin Pěnička, Mark C Petrie, Burkert Pieske, Martijn C. Post, Philip Raake, Alicia Del Carmen Becerra Romero, John Ryan, Yoshihiko Saito, Takafumi Sakamoto, Yasushi Sakata, Michael A. Samara, Kumar Satya, Andrew Sindone, Randall C. Starling, Jean‐Noël Trochu, Bharathi Upadhya, Jan Van der Heyden, Vanessa van Empel, Amit Varma, Amanda R. Vest, Tobias Wengenmayer, Ralf Westenfeld</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4210760531</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Atrial shunt device for heart failure with preserved and mildly reduced ejection fraction (REDUCE LAP-HF II): a randomised, multicentre, blinded, sham-controlled trial</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5005215114", "https://openalex.org/A5030461468", "https://openalex.org/A5082419048", "https://openalex.org/A5057352435", "https://openalex.org/A5008286721", "https://openalex.org/A5056345963", "https://openalex.org/A5086806604", "https://openalex.org/A5004362368", "https://openalex.org/A5056564907", "https://openalex.org/A5003988683", "https://openalex.org/A5058639023", "https://openalex.org/A5068678356", "https://openalex.org/A5008596377", "https://openalex.org/A5024956987", 
-"https://openalex.org/A5043143051", "https://openalex.org/A5054830306", "https://openalex.org/A5052827007", "https://openalex.org/A5086010175", "https://openalex.org/A5069496306", "https://openalex.org/A5003041092", "https://openalex.org/A5041084808", "https://openalex.org/A5078433428", "https://openalex.org/A5035504517", "https://openalex.org/A5037364638", "https://openalex.org/A5057184445", "https://openalex.org/A5062709656", "https://openalex.org/A5052844560", "https://openalex.org/A5023091612", 
-"https://openalex.org/A5064995734", "https://openalex.org/A5021769720", "https://openalex.org/A5084911580", "https://openalex.org/A5082419048", "https://openalex.org/A5065688556", "https://openalex.org/A5035446908", "https://openalex.org/A5028937897", "https://openalex.org/A5051902394", "https://openalex.org/A5057399568", "https://openalex.org/A5038121885", "https://openalex.org/A5013743777", "https://openalex.org/A5015095883", "https://openalex.org/A5002397639", "https://openalex.org/A5059384612", 
-"https://openalex.org/A5025118513", "https://openalex.org/A5006040852", "https://openalex.org/A5067324747", "https://openalex.org/A5074729266", "https://openalex.org/A5084996351", "https://openalex.org/A5011777173", "https://openalex.org/A5028107702", "https://openalex.org/A5048924859", "https://openalex.org/A5030081847", "https://openalex.org/A5084124443", "https://openalex.org/A5066070606", "https://openalex.org/A5091495553", "https://openalex.org/A5012557260", "https://openalex.org/A5083185727", 
-"https://openalex.org/A5056378468", "https://openalex.org/A5056796883", "https://openalex.org/A5038275040", "https://openalex.org/A5070741151", "https://openalex.org/A5066621766", "https://openalex.org/A5059757392", "https://openalex.org/A5014713985", "https://openalex.org/A5028473973", "https://openalex.org/A5089839630", "https://openalex.org/A5063980140", "https://openalex.org/A5036122076", "https://openalex.org/A5074287087", "https://openalex.org/A5007885250", "https://openalex.org/A5022574075", 
-"https://openalex.org/A5057167171", "https://openalex.org/A5018430081", "https://openalex.org/A5023100608", "https://openalex.org/A5028801491", "https://openalex.org/A5016756602", "https://openalex.org/A5080104697", "https://openalex.org/A5011306465", "https://openalex.org/A5070507982", "https://openalex.org/A5077892878", "https://openalex.org/A5055441634", "https://openalex.org/A5009905903", "https://openalex.org/A5073538187", "https://openalex.org/A5004513454", "https://openalex.org/A5070362571", 
-"https://openalex.org/A5082176880", "https://openalex.org/A5066956159", "https://openalex.org/A5047999623", "https://openalex.org/A5049340312", "https://openalex.org/A5039850757", "https://openalex.org/A5041198593", "https://openalex.org/A5041049090", "https://openalex.org/A5039589228", "https://openalex.org/A5033446201", "https://openalex.org/A5015017115", "https://openalex.org/A5006178449", "https://openalex.org/A5078850892", "https://openalex.org/A5079635087", "https://openalex.org/A5051659983", 
-"https://openalex.org/A5037540931", "https://openalex.org/A5035879928"), au_display_name = c("Sanjiv J. Shah", "Barry A. Borlaug", "Eugene S. Chung", "Donald E. Cutlip", "Philippe Debonnaire", "Peter S. Fail", "Qi Gao", "Gerd Hasenfuß", "Rami Kahwash", "David Kaye", "Sheldon E. Litwin", "Philipp Lurz", "Joseph M. Massaro", "Rajeev Mohan", "Mark J. Ricciardi", "Scott D. Solomon", "Aaron L. Sverdlov", "Vijendra Swarup", "Dirk J. van Veldhuisen", "Sebastian Winkler", "Martin B. Leon", "Joseph G. Akar", 
-"Jiro Ando", "Toshihisa Anzai", "Masanori Asakura", "Steven R. Bailey", "Anupam Basuray", "Fabrice Bauer", "Martin Bergmann", "J. Anthony Blair", "Jeffrey J. Cavendish", "Eugene S. Chung", "Maja Čikeš", "Ira Dauber", "Erwan Donal", "Jean‐Christophe Eicher", "James D. Flaherty", "Xavier Freixa", "Sameer Gafoor", "Zachary M. Gertz", "Robert A. Gordon", "Marco Guazzi", "Cesar Guerrero‐Miranda", "Deepak K. Gupta", "Finn Gustafsson", "Cyrus Hadadi", "Emad Hakemi", "Louis Handoko", "M. Hass", "Jörg Hausleiter", 
-"Christopher Hayward", "Gavin Hickey", "Scott L. Hummel", "Imad Hussain", "Richard Isnard", "Chisato Izumi", "Guillaume Jondeau", "Elizabeth Juneman", "Koichiro Kinugawa", "Robert Kipperman", "Bartek Krakowiak", "Selim R. Krim", "Joshua Larned", "Gregory D. Lewis", "Erik Lipšic", "Anthony Magalski", "Sula Mazimba", "Jeremy A. Mazurek", "Michele McGrady", "S. McKenzie", "Shamir R. Mehta", "John L. Mignone", "Hakim Morsli", "Ajith Nair", "Thomas Noel", "James L. Orford", "Kishan S. Parikh", "Tiffany Patterson", 
-"Martin Pěnička", "Mark C Petrie", "Burkert Pieske", "Martijn C. Post", "Philip Raake", "Alicia Del Carmen Becerra Romero", "John Ryan", "Yoshihiko Saito", "Takafumi Sakamoto", "Yasushi Sakata", "Michael A. Samara", "Kumar Satya", "Andrew Sindone", "Randall C. Starling", "Jean‐Noël Trochu", "Bharathi Upadhya", "Jan Van der Heyden", "Vanessa van Empel", "Amit Varma", "Amanda R. Vest", "Tobias Wengenmayer", "Ralf Westenfeld"), au_orcid = c(NA, "https://orcid.org/0000-0001-9375-0596", "https://orcid.org/0000-0002-9443-3274", 
-"https://orcid.org/0000-0002-7583-9893", "https://orcid.org/0000-0003-1196-3016", "https://orcid.org/0000-0001-5173-7326", "https://orcid.org/0000-0002-7794-9869", "https://orcid.org/0000-0002-5942-361X", NA, "https://orcid.org/0000-0001-7672-1208", "https://orcid.org/0000-0002-5887-8161", "https://orcid.org/0000-0002-5993-4487", NA, "https://orcid.org/0000-0002-0541-9017", NA, "https://orcid.org/0000-0003-3698-9597", "https://orcid.org/0000-0003-2539-8038", NA, "https://orcid.org/0000-0003-1611-7935", 
-"https://orcid.org/0000-0002-0926-311X", NA, "https://orcid.org/0000-0002-9348-3763", NA, NA, NA, "https://orcid.org/0000-0002-5792-6926", NA, NA, "https://orcid.org/0000-0002-6140-7870", "https://orcid.org/0000-0002-6135-4713", NA, "https://orcid.org/0000-0002-9443-3274", "https://orcid.org/0000-0002-4772-5549", NA, "https://orcid.org/0000-0003-2677-3389", "https://orcid.org/0000-0002-2549-679X", NA, "https://orcid.org/0000-0002-3203-9060", NA, "https://orcid.org/0000-0002-9613-5246", "https://orcid.org/0000-0002-6204-4768", 
-"https://orcid.org/0000-0002-8456-609X", "https://orcid.org/0000-0003-4665-5160", "https://orcid.org/0000-0003-2191-3485", NA, NA, NA, NA, NA, "https://orcid.org/0000-0003-2909-7961", NA, "https://orcid.org/0000-0002-0547-4921", "https://orcid.org/0000-0002-0924-3135", "https://orcid.org/0000-0001-7702-0841", NA, "https://orcid.org/0000-0002-3282-1327", "https://orcid.org/0000-0002-0101-2076", NA, "https://orcid.org/0000-0003-0009-8477", NA, NA, "https://orcid.org/0000-0001-8545-122X", NA, "https://orcid.org/0000-0001-8108-8240", 
-NA, NA, "https://orcid.org/0000-0001-6451-2118", "https://orcid.org/0000-0002-3332-0102", NA, "https://orcid.org/0000-0002-1129-2905", "https://orcid.org/0000-0003-3258-949X", NA, NA, "https://orcid.org/0000-0002-3755-4985", NA, NA, NA, NA, NA, "https://orcid.org/0000-0002-6333-9496", "https://orcid.org/0000-0002-6466-5306", "https://orcid.org/0009-0001-8404-1728", NA, NA, "https://orcid.org/0000-0002-9203-5512", "https://orcid.org/0000-0001-5574-3571", "https://orcid.org/0000-0002-5070-4343", "https://orcid.org/0000-0002-5618-4721", 
-NA, NA, "https://orcid.org/0000-0003-0075-805X", "https://orcid.org/0000-0002-1254-4860", NA, "https://orcid.org/0000-0001-7192-7995", NA, "https://orcid.org/0000-0002-6864-0296", NA, "https://orcid.org/0000-0001-8274-5660", NA, "https://orcid.org/0000-0001-7058-3051"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", 
-"middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", 
-"middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle"), au_affiliation_raw = c("Northwestern University Feinberg School of Medicine, Chicago, IL, USA", "Mayo Clinic, Rochester, MN, USA", "The Lindner Research Center at The Christ Hospital, Cincinnati, OH, USA", "Baim Clinical Research Institute, Boston, MA, USA", 
-"AZ Sint-Jan Brugge-Oostende, Bruges, Belgium", "Cardiovascular Institute of the South, Houma, LA, USA", "Baim Clinical Research Institute, Boston, MA, USA", "Heart Center, University Medical Center, Göttingen, Germany", "Ohio State University, Columbus, OH, USA", "Alfred Hospital, Melbourne, VIC, Australia", "Medical University of South Carolina and Ralph H Johnson Veterans Affairs Medical Center, Charleston, SC, USA", "Heart Center Leipzig at University Leipzig, Leipzig, Germany", "Boston University, Boston, MA, USA", 
-"Scripps Health, La Jolla, CA, USA", "Northshore University Health System, Evanston, IL, USA", "Brigham and Women's Hospital, Boston, MA, USA", "John Hunter Hospital, University of Newcastle, New Lambton Heights, NSW, Australia", "Arizona Heart and Rhythm Center, Phoenix, AZ, USA", "University of Groningen, University Medical Center Groningen, Groningen, Netherlands", "BG Klinikum Unfallkrankenhaus, Berlin, Germany", "Cardiovascular Research Foundation, New York City, NY, USA", "Boston University, Boston, MA, USA", 
-"", "", "", "", "", "", "Cardiovascular Research Foundation, New York City, NY, USA", "", "", "The Lindner Research Center at The Christ Hospital, Cincinnati, OH, USA", "", "", "Baim Clinical Research Institute, Boston, MA, USA", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "Brigham and Women's Hospital, Boston, MA, USA", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "Brigham and Women's Hospital, Boston, MA, USA", "", "", "", "AZ Sint-Jan Brugge-Oostende, Bruges, Belgium", 
-"", "", "", "", "Cardiovascular Research Foundation, New York City, NY, USA", "Northshore University Health System, Evanston, IL, USA", "", "", "Heart Center Leipzig at University Leipzig, Leipzig, Germany", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", ""), institution_id = c("https://openalex.org/I111979921", "https://openalex.org/I4210125099", "https://openalex.org/I4210134025", "https://openalex.org/I4210111520", "https://openalex.org/I4210123377", "https://openalex.org/I25790992", 
-"https://openalex.org/I4210111520", "https://openalex.org/I4210116730", "https://openalex.org/I52357470", "https://openalex.org/I2801993434", "https://openalex.org/I4210132004", "https://openalex.org/I4210116662", NA, "https://openalex.org/I1311914864", "https://openalex.org/I1339509835", "https://openalex.org/I1283280774", "https://openalex.org/I2800479947", "https://openalex.org/I2802835243", "https://openalex.org/I1334415907", "https://openalex.org/I4210108951", "https://openalex.org/I4210144653", 
-NA, NA, NA, NA, NA, NA, NA, "https://openalex.org/I4210144653", NA, NA, "https://openalex.org/I4210134025", NA, NA, "https://openalex.org/I4210111520", NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, "https://openalex.org/I1283280774", NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, "https://openalex.org/I1283280774", NA, NA, NA, "https://openalex.org/I4210123377", NA, NA, NA, NA, "https://openalex.org/I4210144653", "https://openalex.org/I1339509835", NA, NA, "https://openalex.org/I4210116662", 
-NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_display_name = c("Northwestern University", "Mayo Clinic in Arizona", "Christ Hospital", "Baim Institute for Clinical Research", "AZ Sint-Jan", "Cardiovascular Institute of the South", "Baim Institute for Clinical Research", "Universitätsmedizin Göttingen", "The Ohio State University", "The Alfred Hospital", "Ralph H. Johnson VA Medical Center", "Leipzig Heart Institute", NA, "Scripps Health", "NorthShore University HealthSystem", 
-"Brigham and Women's Hospital", "John Hunter Hospital", "Arizona Heart Hospital", "University Medical Center Groningen", "Unfallkrankenhaus Berlin", "Cardiovascular Research Foundation", NA, NA, NA, NA, NA, NA, NA, "Cardiovascular Research Foundation", NA, NA, "Christ Hospital", NA, NA, "Baim Institute for Clinical Research", NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, "Brigham and Women's Hospital", NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, "Brigham and Women's Hospital", 
-NA, NA, NA, "AZ Sint-Jan", NA, NA, NA, NA, "Cardiovascular Research Foundation", "NorthShore University HealthSystem", NA, NA, "Leipzig Heart Institute", NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_ror = c("https://ror.org/000e0be47", "https://ror.org/03jp40720", "https://ror.org/03dm2se39", "https://ror.org/01va8fr66", "https://ror.org/030h1vb90", "https://ror.org/02c2gwm94", "https://ror.org/01va8fr66", "https://ror.org/021ft0n22", "https://ror.org/00rs6vg23", 
-"https://ror.org/01wddqe20", "https://ror.org/030ma0n95", "https://ror.org/02kj91m96", NA, "https://ror.org/05bhsww40", "https://ror.org/04tpp9d61", "https://ror.org/04b6nzv94", "https://ror.org/0187t0j49", "https://ror.org/04cext840", "https://ror.org/03cv38k47", "https://ror.org/011zjcv36", "https://ror.org/04yxwc698", NA, NA, NA, NA, NA, NA, NA, "https://ror.org/04yxwc698", NA, NA, "https://ror.org/03dm2se39", NA, NA, "https://ror.org/01va8fr66", NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, 
-NA, NA, NA, NA, NA, "https://ror.org/04b6nzv94", NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, "https://ror.org/04b6nzv94", NA, NA, NA, "https://ror.org/030h1vb90", NA, NA, NA, NA, "https://ror.org/04yxwc698", "https://ror.org/04tpp9d61", NA, NA, "https://ror.org/02kj91m96", NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_country_code = c("US", "US", "US", "US", "BE", "US", "US", "DE", "US", "AU", "US", "DE", NA, "US", "US", "US", "AU", "US", "NL", 
-"DE", "US", NA, NA, NA, NA, NA, NA, NA, "US", NA, NA, "US", NA, NA, "US", NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, "US", NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, "US", NA, NA, NA, "BE", NA, NA, NA, NA, "US", "US", NA, NA, "DE", NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_type = c("education", "healthcare", "healthcare", "nonprofit", "healthcare", "other", "nonprofit", "healthcare", "education", "healthcare", "healthcare", 
-"facility", NA, "healthcare", "healthcare", "healthcare", "healthcare", "healthcare", "healthcare", "healthcare", "nonprofit", NA, NA, NA, NA, NA, NA, NA, "nonprofit", NA, NA, "healthcare", NA, NA, "nonprofit", NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, "healthcare", NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, "healthcare", NA, NA, NA, "healthcare", NA, NA, NA, NA, "nonprofit", "healthcare", NA, NA, "facility", NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, 
-NA, NA, NA, NA, NA, NA), institution_lineage = c("https://openalex.org/I111979921", "https://openalex.org/I1330342723, https://openalex.org/I4210125099", "https://openalex.org/I4210134025", "https://openalex.org/I4210111520", "https://openalex.org/I4210123377", "https://openalex.org/I25790992", "https://openalex.org/I4210111520", "https://openalex.org/I4210116730", "https://openalex.org/I2802096936, https://openalex.org/I52357470", "https://openalex.org/I2801993434, https://openalex.org/I4210163178", 
-"https://openalex.org/I4210131075, https://openalex.org/I4210132004", "https://openalex.org/I4210116662, https://openalex.org/I4210138940", NA, "https://openalex.org/I1311914864", "https://openalex.org/I1339509835", "https://openalex.org/I1283280774, https://openalex.org/I48633490", "https://openalex.org/I2800479947, https://openalex.org/I4210154888", "https://openalex.org/I2802835243", "https://openalex.org/I1334415907", "https://openalex.org/I4210108951", "https://openalex.org/I4210144653", NA, 
-NA, NA, NA, NA, NA, NA, "https://openalex.org/I4210144653", NA, NA, "https://openalex.org/I4210134025", NA, NA, "https://openalex.org/I4210111520", NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, "https://openalex.org/I1283280774, https://openalex.org/I48633490", NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, "https://openalex.org/I1283280774, https://openalex.org/I48633490", NA, NA, NA, "https://openalex.org/I4210123377", NA, NA, NA, NA, "https://openalex.org/I4210144653", 
-"https://openalex.org/I1339509835", NA, NA, "https://openalex.org/I4210116662, https://openalex.org/I4210138940", NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Placement of an interatrial shunt device reduces pulmonary capillary wedge pressure during exercise in patients with heart failure and preserved or mildly reduced ejection fraction. We aimed to investigate whether an interatrial shunt can reduce heart failure events or improve health status in these patients.In this randomised, international, blinded, sham-controlled trial performed at 89 health-care centres, we included patients (aged ≥40 years) with symptomatic heart failure, an ejection fraction of at least 40%, and pulmonary capillary wedge pressure during exercise of at least 25 mm Hg while exceeding right atrial pressure by at least 5 mm Hg. Patients were randomly assigned (1:1) to receive either a shunt device or sham procedure. Patients and outcome assessors were masked to randomisation. The primary endpoint was a hierarchical composite of cardiovascular death or non-fatal ischemic stroke at 12 months, rate of total heart failure events up to 24 months, and change in Kansas City Cardiomyopathy Questionnaire overall summary score at 12 months. Pre-specified subgroup analyses were conducted for the heart failure event endpoint. Analysis of the primary endpoint, all other efficacy endpoints, and safety endpoints was conducted in the modified intention-to-treat population, defined as all patients randomly allocated to receive treatment, excluding those found to be ineligible after randomisation and therefore not treated. This study is registered with ClinicalTrials.gov, NCT03088033.Between May 25, 2017, and July 24, 2020, 1072 participants were enrolled, of whom 626 were randomly assigned to either the atrial shunt device (n=314) or sham procedure (n=312). There were no differences between groups in the primary composite endpoint (win ratio 1·0 [95% CI 0·8-1·2]; p=0·85) or in the individual components of the primary endpoint. The prespecified subgroups demonstrating a differential effect of atrial shunt device treatment on heart failure events were pulmonary artery systolic pressure at 20W of exercise (pinteraction=0·002 [&gt;70 mm Hg associated with worse outcomes]), right atrial volume index (pinteraction=0·012 [≥29·7 mL/m2, worse outcomes]), and sex (pinteraction=0·02 [men, worse outcomes]). There were no differences in the composite safety endpoint between the two groups (n=116 [38%] for shunt device vs n=97 [31%] for sham procedure; p=0·11).Placement of an atrial shunt device did not reduce the total rate of heart failure events or improve health status in the overall population of patients with heart failure and ejection fraction of greater than or equal to 40%.Corvia Medical.</t>
+          <t>2022-03-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-03-01</t>
+          <t>The Lancet</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>The Lancet</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S49861241</t>
+          <t>https://doi.org/10.1016/s0140-6736(22)00016-2</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0140-6736</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35120593</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1016/s0140-6736(22)00016-2</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1130</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>1140</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>399</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>10330</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://pure.rug.nl/ws/files/216914178/1_s2.0_S0140673622000162_main.pdf</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4210760531</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4210760531", doi = "https://doi.org/10.1016/s0140-6736(22)00016-2", pmid = "https://pubmed.ncbi.nlm.nih.gov/35120593")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s0140-6736(22)00016-2</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1822071978", "https://openalex.org/W2001984572", "https://openalex.org/W2033980725", "https://openalex.org/W2044591445", "https://openalex.org/W2105084079", "https://openalex.org/W2155135354", "https://openalex.org/W2310954657", "https://openalex.org/W2311933573", "https://openalex.org/W2462116812", "https://openalex.org/W2465331900", "https://openalex.org/W2472866729", "https://openalex.org/W2552276063", "https://openalex.org/W2622648624", "https://openalex.org/W2732236888", 
-"https://openalex.org/W2766542337", "https://openalex.org/W2769453207", "https://openalex.org/W2889412844", "https://openalex.org/W2905250394", "https://openalex.org/W2952550580", "https://openalex.org/W2971294569", "https://openalex.org/W2983523827", "https://openalex.org/W3012616651", "https://openalex.org/W3032202003", "https://openalex.org/W3033074701", "https://openalex.org/W3193297191", "https://openalex.org/W3194751461", "https://openalex.org/W3210475044")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W4207030337", "https://openalex.org/W2891746874", "https://openalex.org/W2481234813", "https://openalex.org/W1971710084", "https://openalex.org/W2072108749", "https://openalex.org/W2028196543", "https://openalex.org/W2011390101", "https://openalex.org/W4390348475", "https://openalex.org/W4390268811", "https://openalex.org/W4385397996")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Steven Goldman, Jay H. Traverse, Michael R. Zile, Elizabeth Juneman, Barry Greenberg, Rosemary F. Kelly, Jen Watson Koevary, Jordan J. Lancaster</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312271032</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Perspective on the development of a bioengineered patch to treat heart failure: rationale and proposed design of phase I clinical trial</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5041233721", "https://openalex.org/A5043447056", "https://openalex.org/A5047833899", "https://openalex.org/A5056796883", "https://openalex.org/A5064906147", "https://openalex.org/A5030716853", "https://openalex.org/A5072411872", "https://openalex.org/A5047446502"), au_display_name = c("Steven Goldman", "Jay H. Traverse", "Michael R. Zile", "Elizabeth Juneman", "Barry Greenberg", "Rosemary F. Kelly", "Jen Watson Koevary", "Jordan J. Lancaster"), au_orcid = c("https://orcid.org/0000-0001-7943-1871", 
-"https://orcid.org/0000-0002-2108-0252", "https://orcid.org/0000-0001-7076-221X", NA, NA, NA, NA, NA), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("", "", "", "", "", "", "", ""), institution_id = c(NA, NA, NA, NA, NA, NA, NA, NA), institution_display_name = c(NA, NA, NA, NA, NA, NA, NA, NA), institution_ror = c(NA, NA, NA, NA, NA, NA, NA, NA), institution_country_code = c(NA, NA, NA, NA, NA, NA, NA, NA), institution_type = c(NA, 
-NA, NA, NA, NA, NA, NA, NA), institution_lineage = c(NA, NA, NA, NA, NA, NA, NA, NA))</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>This perspective focuses on the development of tissue engineered (TE) cell-based therapies to treat left ventricular (LV) dysfunction and chronic heart failure (CHF). The development of induced pluripotent stem cells enabled investigators to seed or co-culture human induced pluripotent stem cell-derived cardiomyocytes (hiPSC-CMs) alone and in combination with other cells onto bioengineered scaffolds applied to the epicardial surface of the damaged left ventricle. Using our work as an example, we show how a xenograft implant of a bioengineered scaffold embedded with human neonatal fibroblasts and seeded with hiPSC-CMs partially reversed maladaptive LV remodeling and improved LV systolic/diastolic function in an immune-competent rat model of CHF. The fibroblasts lay down an extracellular matrix and secrete growth factors that increase myocardial blood flow. This approach provides an improved cell payload that covers a larger area of the damaged left ventricle as opposed to direct cell injections into the heart or down the coronary arteries. These studies combined with ongoing studies in immune-competent Yucatan mini swine treated with the same xenograft led to the preliminary design of a proposed Phase I clinical trial that will be presented to the Federal Drug Administration. For the proposed Phase I clinical, this TE patch will be implanted onto the epicardial surface of non-immunosuppressed patients undergoing elective Coronary Artery Bypass Grafting with Ejection Fractions ≥ 20% and ≤ 45%. The primary endpoints will be adverse events/severe adverse events associated with placing the TE patch on the heart. While Phase I trials are primarily safety trials, this proposed trial is designed to obtain some potential efficacy endpoints to help with the design of future Phase II/III clinical trials. These endpoints include changes in LV remodeling that were seen in the pre-clinical animal models as well as including endpoints that focus on patient well-being.</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>Vessel plus</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vessel plus</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4210233581</t>
+          <t>https://doi.org/10.20517/2574-1209.2021.149</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -781,132 +564,42 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2574-1209</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.20517/2574-1209.2021.149</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>https://vpjournal.net/article/download/5070</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>https://vpjournal.net/article/download/5070</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>c(funder = "https://openalex.org/F4320309677", funder_display_name = "Arizona Department of Health Services", award_id = "# ADHS16-162516", funder = "https://openalex.org/F4320310160", funder_display_name = "University of Arizona", funder = "https://openalex.org/F4320337338", funder_display_name = "National Heart, Lung, and Blood Institute", award_id = "PCT0009-2")</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4312271032</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4312271032", doi = "https://doi.org/10.20517/2574-1209.2021.149")</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.20517/2574-1209.2021.149</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2077879126", "https://openalex.org/W2947193829", "https://openalex.org/W2109755904", "https://openalex.org/W2287025129", "https://openalex.org/W2717579072", "https://openalex.org/W2706081157", "https://openalex.org/W1497757154", "https://openalex.org/W2997910224", "https://openalex.org/W4317717575", "https://openalex.org/W2526753253")</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Elizabeth B Juneman_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Elizabeth B Juneman_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t xml:space="preserve">Northwestern University Feinberg School of Medicine, Chicago, IL, USA; Mayo Clinic, Rochester, MN, USA; The Lindner Research Center at The Christ Hospital, Cincinnati, OH, USA; Baim Clinical Research Institute, Boston, MA, USA; AZ Sint-Jan Brugge-Oostende, Bruges, Belgium; Cardiovascular Institute of the South, Houma, LA, USA; Baim Clinical Research Institute, Boston, MA, USA; Heart Center, University Medical Center, Göttingen, Germany; Ohio State University, Columbus, OH, USA; Alfred Hospital, Melbourne, VIC, Australia; Medical University of South Carolina and Ralph H Johnson Veterans Affairs Medical Center, Charleston, SC, USA; Heart Center Leipzig at University Leipzig, Leipzig, Germany; Boston University, Boston, MA, USA; Scripps Health, La Jolla, CA, USA; Northshore University Health System, Evanston, IL, USA; Brigham and Women's Hospital, Boston, MA, USA; John Hunter Hospital, University of Newcastle, New Lambton Heights, NSW, Australia; Arizona Heart and Rhythm Center, Phoenix, AZ, USA; University of Groningen, University Medical Center Groningen, Groningen, Netherlands; BG Klinikum Unfallkrankenhaus, Berlin, Germany; Cardiovascular Research Foundation, New York City, NY, USA; Boston University, Boston, MA, USA; ; ; ; ; ; ; Cardiovascular Research Foundation, New York City, NY, USA; ; ; The Lindner Research Center at The Christ Hospital, Cincinnati, OH, USA; ; ; Baim Clinical Research Institute, Boston, MA, USA; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; Brigham and Women's Hospital, Boston, MA, USA; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; Brigham and Women's Hospital, Boston, MA, USA; ; ; ; AZ Sint-Jan Brugge-Oostende, Bruges, Belgium; ; ; ; ; Cardiovascular Research Foundation, New York City, NY, USA; Northshore University Health System, Evanston, IL, USA; ; ; Heart Center Leipzig at University Leipzig, Leipzig, Germany; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4210760531</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Atrial shunt device for heart failure with preserved and mildly reduced ejection fraction (REDUCE LAP-HF II): a randomised, multicentre, blinded, sham-controlled trial</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The Lancet</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0140-6736(22)00016-2</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35120593</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0140-6736(22)00016-2</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312271032</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Perspective on the development of a bioengineered patch to treat heart failure: rationale and proposed design of phase I clinical trial</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Vessel plus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.20517/2574-1209.2021.149</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.20517/2574-1209.2021.149</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
